--- a/bin/config/xlsx/Ability.xlsx
+++ b/bin/config/xlsx/Ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Ability" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>required_status</t>
+  </si>
+  <si>
+    <t>cooldown_id</t>
   </si>
   <si>
     <t>uint32</t>
@@ -868,7 +871,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1118,15 +1121,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1193,213 +1196,225 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
       <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>22</v>
-      </c>
       <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
         <v>23</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>23</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>23</v>
-      </c>
-      <c r="U2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="W4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" ht="409.5" spans="2:22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="409.5" spans="2:23">
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="W7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -1415,13 +1430,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1429,13 +1444,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1443,13 +1458,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1457,13 +1472,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1471,13 +1486,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1485,13 +1500,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1499,13 +1514,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1513,13 +1528,13 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1527,13 +1542,13 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1541,13 +1556,13 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1555,13 +1570,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1569,13 +1584,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/Ability.xlsx
+++ b/bin/config/xlsx/Ability.xlsx
@@ -1123,8 +1123,8 @@
   <sheetPr/>
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31:W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/bin/config/xlsx/Ability.xlsx
+++ b/bin/config/xlsx/Ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17200"/>
+    <workbookView windowWidth="26150" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Ability" sheetId="2" r:id="rId1"/>
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31:W37"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/bin/config/xlsx/Ability.xlsx
+++ b/bin/config/xlsx/Ability.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -131,7 +131,8 @@
     <t>目标状态</t>
   </si>
   <si>
-    <t>CastPoint(Spell时间点）,一般为动画抬手到攻击帧时长。比如说播放一个挥刀动画0.3秒后动画到攻击点，这时策划就配置CastPoint为0.3秒。</t>
+    <t>CastPoint(毫秒Spell时间点）,
+一般为动画抬手到攻击帧时长。比如说播放一个挥刀动画0.3秒后动画到攻击点，这时策划就配置CastPoint为0.3秒。</t>
   </si>
   <si>
     <t>后摇阶段</t>
@@ -795,9 +796,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1123,8 +1127,8 @@
   <sheetPr/>
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10:W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1217,10 +1221,10 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -1229,7 +1233,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
@@ -1241,10 +1245,10 @@
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
@@ -1380,7 +1384,7 @@
       <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G7" t="s">
@@ -1425,7 +1429,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1435,11 +1439,68 @@
       <c r="C10" t="s">
         <v>43</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="I10" t="s">
         <v>43</v>
       </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1449,11 +1510,68 @@
       <c r="C11" t="s">
         <v>44</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="I11" t="s">
         <v>43</v>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1463,11 +1581,68 @@
       <c r="C12" t="s">
         <v>45</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="I12" t="s">
         <v>43</v>
       </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1477,11 +1652,68 @@
       <c r="C13" t="s">
         <v>43</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="I13" t="s">
         <v>43</v>
       </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1491,11 +1723,68 @@
       <c r="C14" t="s">
         <v>44</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="I14" t="s">
         <v>43</v>
       </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1505,11 +1794,68 @@
       <c r="C15" t="s">
         <v>45</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="I15" t="s">
         <v>43</v>
       </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1519,11 +1865,68 @@
       <c r="C16" t="s">
         <v>43</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="I16" t="s">
         <v>43</v>
       </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1533,11 +1936,68 @@
       <c r="C17" t="s">
         <v>44</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
       <c r="I17" t="s">
         <v>43</v>
       </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>9</v>
       </c>
@@ -1547,11 +2007,68 @@
       <c r="C18" t="s">
         <v>45</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
       <c r="I18" t="s">
         <v>43</v>
       </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1561,11 +2078,68 @@
       <c r="C19" t="s">
         <v>43</v>
       </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="I19" t="s">
         <v>43</v>
       </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>11</v>
       </c>
@@ -1575,11 +2149,68 @@
       <c r="C20" t="s">
         <v>44</v>
       </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="I20" t="s">
         <v>43</v>
       </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>12</v>
       </c>
@@ -1589,8 +2220,65 @@
       <c r="C21" t="s">
         <v>45</v>
       </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
       <c r="I21" t="s">
         <v>43</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/config/xlsx/Ability.xlsx
+++ b/bin/config/xlsx/Ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26150" windowHeight="12720"/>
+    <workbookView windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Ability" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>double</t>
-  </si>
-  <si>
-    <t>repeated</t>
   </si>
   <si>
     <t>common</t>
@@ -163,24 +160,6 @@
   </si>
   <si>
     <t>所需状态</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[1,3]</t>
   </si>
 </sst>
 </file>
@@ -796,12 +775,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1125,15 +1101,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10:W21"/>
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1141,70 +1117,109 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AG1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AH1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AI1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AJ1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1257,193 +1272,271 @@
         <v>23</v>
       </c>
       <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="s">
         <v>24</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AB2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="s">
         <v>24</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AD2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE2" t="s">
         <v>24</v>
       </c>
-      <c r="U2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="AF2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
+    <row r="4" spans="1:36">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" t="s">
+    <row r="5" spans="6:6">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" t="s">
-        <v>26</v>
-      </c>
-      <c r="U4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="5" spans="4:4">
-      <c r="D5" t="s">
+    <row r="7" ht="409.5" spans="2:36">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" ht="409.5" spans="2:23">
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V7" t="s">
-        <v>42</v>
-      </c>
-      <c r="W7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:5">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:5">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:36">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10"/>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1454,67 +1547,104 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>43</v>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" t="s">
-        <v>43</v>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:36">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11"/>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1525,67 +1655,104 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>43</v>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" t="s">
-        <v>43</v>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:36">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12"/>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1596,67 +1763,104 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>43</v>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" t="s">
-        <v>43</v>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:36">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13"/>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1667,67 +1871,104 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>43</v>
+      <c r="I13">
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" t="s">
-        <v>43</v>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:36">
       <c r="A14">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14"/>
       <c r="D14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1738,67 +1979,106 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>43</v>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" t="s">
-        <v>43</v>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:36">
       <c r="A15">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1809,67 +2089,104 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>43</v>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" t="s">
-        <v>43</v>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:36">
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16"/>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1880,67 +2197,104 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>43</v>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" t="s">
-        <v>43</v>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:36">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17"/>
       <c r="D17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1951,67 +2305,104 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>43</v>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" t="s">
-        <v>43</v>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:36">
       <c r="A18">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18"/>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2022,67 +2413,104 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>43</v>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" t="s">
-        <v>43</v>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:36">
       <c r="A19">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19"/>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2093,67 +2521,104 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>43</v>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" t="s">
-        <v>43</v>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:36">
       <c r="A20">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20"/>
       <c r="D20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2164,67 +2629,106 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>43</v>
+      <c r="I20">
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" t="s">
-        <v>43</v>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:36">
       <c r="A21">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2235,49 +2739,88 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>43</v>
+      <c r="I21">
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" t="s">
-        <v>43</v>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Ability.xlsx
+++ b/bin/config/xlsx/Ability.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -74,10 +74,10 @@
     <t>channeltime</t>
   </si>
   <si>
-    <t>request_resource</t>
-  </si>
-  <si>
-    <t>resource_cost</t>
+    <t>requestresource</t>
+  </si>
+  <si>
+    <t>requestresource_cost</t>
   </si>
   <si>
     <t>range</t>
@@ -1101,15 +1101,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1189,37 +1189,43 @@
         <v>16</v>
       </c>
       <c r="AA1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB1" t="s">
         <v>16</v>
       </c>
       <c r="AC1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD1" t="s">
         <v>16</v>
       </c>
       <c r="AE1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG1" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>20</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1299,37 +1305,43 @@
         <v>23</v>
       </c>
       <c r="AA2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="s">
         <v>23</v>
       </c>
       <c r="AC2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="s">
         <v>23</v>
       </c>
       <c r="AE2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG2" t="s">
         <v>24</v>
       </c>
       <c r="AH2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ2" t="s">
         <v>23</v>
       </c>
+      <c r="AK2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1436,6 +1448,12 @@
         <v>25</v>
       </c>
       <c r="AJ4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1444,7 +1462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="409.5" spans="2:36">
+    <row r="7" ht="409.5" spans="2:38">
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1482,33 +1500,39 @@
         <v>36</v>
       </c>
       <c r="AA7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="s">
         <v>36</v>
       </c>
       <c r="AC7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD7" t="s">
         <v>36</v>
       </c>
       <c r="AE7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG7" t="s">
         <v>37</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>38</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AI7" t="s">
         <v>39</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AJ7" t="s">
         <v>40</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AK7" t="s">
         <v>41</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AL7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1524,14 +1548,13 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:38">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10"/>
       <c r="D10">
         <v>1</v>
       </c>
@@ -1631,15 +1654,20 @@
       <c r="AJ10">
         <v>0</v>
       </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:38">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11"/>
       <c r="D11">
         <v>2</v>
       </c>
@@ -1739,15 +1767,20 @@
       <c r="AJ11">
         <v>0</v>
       </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:38">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12"/>
       <c r="D12">
         <v>3</v>
       </c>
@@ -1847,15 +1880,20 @@
       <c r="AJ12">
         <v>0</v>
       </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:38">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13"/>
       <c r="D13">
         <v>1</v>
       </c>
@@ -1955,15 +1993,20 @@
       <c r="AJ13">
         <v>0</v>
       </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:38">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14"/>
       <c r="D14">
         <v>2</v>
       </c>
@@ -2063,8 +2106,14 @@
       <c r="AJ14">
         <v>0</v>
       </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:38">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2173,15 +2222,20 @@
       <c r="AJ15">
         <v>0</v>
       </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:38">
       <c r="A16">
         <v>7</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16"/>
       <c r="D16">
         <v>1</v>
       </c>
@@ -2281,15 +2335,20 @@
       <c r="AJ16">
         <v>0</v>
       </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:38">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17"/>
       <c r="D17">
         <v>2</v>
       </c>
@@ -2389,15 +2448,20 @@
       <c r="AJ17">
         <v>0</v>
       </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:38">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18"/>
       <c r="D18">
         <v>3</v>
       </c>
@@ -2497,15 +2561,20 @@
       <c r="AJ18">
         <v>0</v>
       </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19"/>
       <c r="D19">
         <v>1</v>
       </c>
@@ -2605,15 +2674,20 @@
       <c r="AJ19">
         <v>0</v>
       </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>11</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20"/>
       <c r="D20">
         <v>2</v>
       </c>
@@ -2713,8 +2787,14 @@
       <c r="AJ20">
         <v>0</v>
       </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>12</v>
       </c>
@@ -2821,6 +2901,12 @@
         <v>0</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Ability.xlsx
+++ b/bin/config/xlsx/Ability.xlsx
@@ -74,7 +74,7 @@
     <t>channeltime</t>
   </si>
   <si>
-    <t>requestresource</t>
+    <t>requestresource_id</t>
   </si>
   <si>
     <t>requestresource_cost</t>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/bin/config/xlsx/Ability.xlsx
+++ b/bin/config/xlsx/Ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17200"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Ability" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>postcastrecoverytime</t>
-  </si>
-  <si>
-    <t>channelstart</t>
   </si>
   <si>
     <t>channelthink</t>
@@ -851,7 +848,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1101,15 +1098,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL21"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1186,19 +1183,19 @@
         <v>15</v>
       </c>
       <c r="Z1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA1" t="s">
         <v>15</v>
       </c>
       <c r="AB1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC1" t="s">
         <v>15</v>
       </c>
       <c r="AD1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE1" t="s">
         <v>15</v>
@@ -1221,298 +1218,292 @@
       <c r="AK1" t="s">
         <v>21</v>
       </c>
-      <c r="AL1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="s">
         <v>23</v>
       </c>
       <c r="AG2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="6:6">
       <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="409.5" spans="2:37">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" ht="409.5" spans="2:38">
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s">
+      <c r="S7" t="s">
         <v>33</v>
       </c>
-      <c r="S7" t="s">
+      <c r="X7" t="s">
         <v>34</v>
       </c>
       <c r="Y7" t="s">
         <v>35</v>
       </c>
       <c r="Z7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="s">
         <v>35</v>
       </c>
       <c r="AD7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF7" t="s">
         <v>36</v>
@@ -1530,10 +1521,7 @@
         <v>40</v>
       </c>
       <c r="AK7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1548,7 +1536,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:37">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1610,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1657,11 +1645,8 @@
       <c r="AK10">
         <v>0</v>
       </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:37">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1723,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1770,11 +1755,8 @@
       <c r="AK11">
         <v>0</v>
       </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:37">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1836,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -1883,11 +1865,8 @@
       <c r="AK12">
         <v>0</v>
       </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:37">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1949,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -1996,11 +1975,8 @@
       <c r="AK13">
         <v>0</v>
       </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:37">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2062,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -2109,11 +2085,8 @@
       <c r="AK14">
         <v>0</v>
       </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:37">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2178,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -2225,11 +2198,8 @@
       <c r="AK15">
         <v>0</v>
       </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:37">
       <c r="A16">
         <v>7</v>
       </c>
@@ -2291,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2338,11 +2308,8 @@
       <c r="AK16">
         <v>0</v>
       </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:37">
       <c r="A17">
         <v>8</v>
       </c>
@@ -2404,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -2451,11 +2418,8 @@
       <c r="AK17">
         <v>0</v>
       </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:37">
       <c r="A18">
         <v>9</v>
       </c>
@@ -2517,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2564,11 +2528,8 @@
       <c r="AK18">
         <v>0</v>
       </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:37">
       <c r="A19">
         <v>10</v>
       </c>
@@ -2630,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -2677,11 +2638,8 @@
       <c r="AK19">
         <v>0</v>
       </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:37">
       <c r="A20">
         <v>11</v>
       </c>
@@ -2743,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2790,11 +2748,8 @@
       <c r="AK20">
         <v>0</v>
       </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:37">
       <c r="A21">
         <v>12</v>
       </c>
@@ -2859,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -2904,9 +2859,6 @@
         <v>0</v>
       </c>
       <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
         <v>0</v>
       </c>
     </row>

--- a/bin/config/xlsx/Ability.xlsx
+++ b/bin/config/xlsx/Ability.xlsx
@@ -1100,8 +1100,8 @@
   <sheetPr/>
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2536,12 +2536,6 @@
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
       <c r="F19">
         <v>0</v>
       </c>

--- a/bin/config/xlsx/Ability.xlsx
+++ b/bin/config/xlsx/Ability.xlsx
@@ -1100,8 +1100,8 @@
   <sheetPr/>
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1651,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1761,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1871,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1981,7 +1981,7 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2091,7 +2091,7 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2204,7 +2204,7 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2314,7 +2314,7 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2424,7 +2424,7 @@
         <v>9</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -2534,7 +2534,7 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>11</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2748,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>3</v>

--- a/bin/config/xlsx/Ability.xlsx
+++ b/bin/config/xlsx/Ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Ability" sheetId="2" r:id="rId1"/>
@@ -848,7 +848,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1100,11 +1100,11 @@
   <sheetPr/>
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" t="s">
@@ -1604,16 +1604,16 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB10">
         <v>0</v>

--- a/bin/config/xlsx/Ability.xlsx
+++ b/bin/config/xlsx/Ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17200"/>
+    <workbookView windowWidth="24500" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="Ability" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>common</t>
-  </si>
-  <si>
-    <t>resource_condition</t>
   </si>
   <si>
     <t>1被动类型的技能(PassiveAblity)
@@ -1101,7 +1098,7 @@
   <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1445,83 +1442,78 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="6:6">
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="7" ht="409.5" spans="2:37">
       <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" t="s">
         <v>30</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" t="s">
+      <c r="S7" t="s">
         <v>32</v>
       </c>
-      <c r="S7" t="s">
+      <c r="X7" t="s">
         <v>33</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF7" t="s">
         <v>35</v>
       </c>
-      <c r="Z7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>37</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>38</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>39</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>40</v>
-      </c>
       <c r="AK7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:5">

--- a/bin/config/xlsx/Ability.xlsx
+++ b/bin/config/xlsx/Ability.xlsx
@@ -1095,10 +1095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK21"/>
+  <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1442,79 +1442,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="409.5" spans="2:37">
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" t="s">
-        <v>32</v>
-      </c>
-      <c r="X7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>39</v>
-      </c>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1"/>
@@ -1528,1181 +1461,158 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:37">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>10</v>
-      </c>
-      <c r="Z10">
-        <v>2</v>
-      </c>
-      <c r="AA10">
-        <v>20</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
+    <row r="19" ht="408" customHeight="1" spans="2:37">
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" t="s">
+        <v>32</v>
+      </c>
+      <c r="X19" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:37">
       <c r="A20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
         <v>10</v>
       </c>
-      <c r="D20">
+      <c r="Z20">
         <v>2</v>
       </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
       <c r="AA20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2737,114 +1647,1211 @@
     </row>
     <row r="21" spans="1:37">
       <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31">
         <v>12</v>
       </c>
-      <c r="B21">
+      <c r="B31">
         <v>11</v>
       </c>
-      <c r="C21">
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="D21">
+      <c r="D31">
         <v>3</v>
       </c>
-      <c r="E21">
+      <c r="E31">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
         <v>0</v>
       </c>
     </row>
